--- a/data/Thorgal/annotations/agreement/_empty.xlsx
+++ b/data/Thorgal/annotations/agreement/_empty.xlsx
@@ -5,19 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent\eclipse\workspaces\Networks\NaNet\data\Thorgal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent\eclipse\workspaces\Networks\NaNet\data\Thorgal\annotations\agreement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07BBCA7D-125C-4B2D-BA42-6ECF9C775E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{333CA176-0E56-4FC4-933F-14109D33D24A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Interactions_T06" sheetId="6" r:id="rId1"/>
-    <sheet name="Interactions_T16" sheetId="8" r:id="rId2"/>
-    <sheet name="Interactions_T20" sheetId="9" r:id="rId3"/>
-    <sheet name="Interactions_K01" sheetId="10" r:id="rId4"/>
-    <sheet name="Interactions_exemple_vol1" sheetId="7" r:id="rId5"/>
+    <sheet name="Interactions_06" sheetId="6" r:id="rId1"/>
+    <sheet name="Interactions_16" sheetId="8" r:id="rId2"/>
+    <sheet name="Interactions_20" sheetId="9" r:id="rId3"/>
+    <sheet name="Interactions_K1" sheetId="10" r:id="rId4"/>
+    <sheet name="Interactions_exemple_vol.01" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
@@ -488,7 +488,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -682,7 +682,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F07DAA2-2030-4BC5-BD90-220F10276B5A}">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
